--- a/Misc/BOM.xlsx
+++ b/Misc/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\AdaptiveSolarTree\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F15D7-FDD9-4933-983C-C96DD35C8C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8A673-0CED-4FFC-BE00-8D8F0A608288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="38700" windowHeight="15345" xr2:uid="{D0986431-C6F9-4AF6-B968-6ECC18A8D780}"/>
+    <workbookView xWindow="225" yWindow="3030" windowWidth="16410" windowHeight="15345" xr2:uid="{D0986431-C6F9-4AF6-B968-6ECC18A8D780}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Item</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Precision RTC Module for Raspberry Pi Pico</t>
   </si>
   <si>
-    <t>Grove - GPS (Air530)</t>
-  </si>
-  <si>
-    <t>Lipo Rider Plus (Charger/Booster) - 5V/2.4A USB Type C</t>
-  </si>
-  <si>
     <t>Grove - Hall Sensor</t>
   </si>
   <si>
@@ -85,19 +79,34 @@
     <t>2x18650 Battery Holder</t>
   </si>
   <si>
-    <t>Energizer Ultimate Lithium L92BP2 AAA</t>
-  </si>
-  <si>
-    <t>Amazon.sg</t>
-  </si>
-  <si>
     <t>LM393 Light Sensor Module 3.3V 5V</t>
   </si>
   <si>
     <t>Lazada.sg</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Lego Assembly</t>
+  </si>
+  <si>
+    <t>brickowl.com</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 Model B 4G with 32GB microSD for Student ONLY</t>
+  </si>
+  <si>
+    <t>sg.cytron.io</t>
+  </si>
+  <si>
+    <t>Sunflower Solar Power Manager 5V</t>
+  </si>
+  <si>
+    <t>Jumper wires</t>
+  </si>
+  <si>
+    <t>sgbotic.com</t>
+  </si>
+  <si>
+    <t>18650 batteries</t>
   </si>
 </sst>
 </file>
@@ -153,13 +162,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCEF4A69-00AC-4D62-BA1B-C9C5097B6026}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14" xr:uid="{FCEF4A69-00AC-4D62-BA1B-C9C5097B6026}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCEF4A69-00AC-4D62-BA1B-C9C5097B6026}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowCount="1">
+  <autoFilter ref="A1:D15" xr:uid="{FCEF4A69-00AC-4D62-BA1B-C9C5097B6026}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6D7CE3B0-F0ED-4CF6-B13A-0B3BF9550542}" name="Item"/>
     <tableColumn id="2" xr3:uid="{1665FC65-2F44-4896-BBBC-EDDDF1C204AE}" name="Qty"/>
     <tableColumn id="3" xr3:uid="{25B937B6-2FD8-4A2B-A823-359AE220AABA}" name="Provider"/>
-    <tableColumn id="4" xr3:uid="{D8D94209-1C7D-417D-981C-3E77D6E2E273}" name="Subtotal"/>
+    <tableColumn id="4" xr3:uid="{D8D94209-1C7D-417D-981C-3E77D6E2E273}" name="Subtotal" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC66CDF-D1EE-4A0E-93E8-098F8ED63BD6}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>13.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,41 +559,41 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>6.5</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
       <c r="D7">
-        <v>4.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>17.16</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,75 +604,100 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>0.71</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
       <c r="D11">
-        <v>0.64</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>11.55</v>
+        <v>107.99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>11.1</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
       <c r="D14">
-        <f>SUBTOTAL(109,D2:D13)</f>
-        <v>104.55999999999999</v>
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>SUBTOTAL(109,Table1[Subtotal])</f>
+        <v>270.08999999999997</v>
       </c>
     </row>
   </sheetData>
